--- a/excel/finished/焦化/CK67-炼焦-7#炉温记录报表（日）copy.xlsx
+++ b/excel/finished/焦化/CK67-炼焦-7#炉温记录报表（日）copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_model" sheetId="6" state="hidden" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>日期</t>
   </si>
@@ -285,11 +285,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -319,11 +319,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,17 +413,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,50 +429,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,39 +460,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -489,31 +489,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,25 +549,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,13 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,97 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,24 +737,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,6 +751,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,28 +794,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,11 +818,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,136 +850,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1125,18 +1125,10 @@
     <cellStyle name="常规 2" xfId="49"/>
     <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1582,7 +1574,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="5" s="17" customFormat="1" spans="1:17">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -1591,11 +1583,11 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25" t="str">
-        <f t="shared" ref="H5:H60" si="0">IF(B5="","",INT(AVERAGE(B5:G5)))</f>
+        <f t="shared" ref="H5:H36" si="0">IFERROR(INT(AVERAGE(B5:G5)),"")</f>
         <v/>
       </c>
       <c r="I5" s="25" t="str">
-        <f t="shared" ref="I5:I60" si="1">IF(H5="","",H5-H$65)</f>
+        <f t="shared" ref="I5:I60" si="1">IFERROR(H5-H$65,"")</f>
         <v/>
       </c>
       <c r="J5" s="25"/>
@@ -1605,15 +1597,15 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25" t="str">
-        <f t="shared" ref="P5:P60" si="2">IF(J5="","",INT(AVERAGE(J5:O5)))</f>
+        <f t="shared" ref="P5:P36" si="2">IFERROR(INT(AVERAGE(J5:O5)),"")</f>
         <v/>
       </c>
       <c r="Q5" s="25" t="str">
-        <f t="shared" ref="Q5:Q60" si="3">IF(P5="","",P5-P$65)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" ref="Q5:Q36" si="3">IFERROR(P5-P$65,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" s="17" customFormat="1" spans="1:17">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -1644,7 +1636,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="7" s="17" customFormat="1" spans="1:17">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1675,7 +1667,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="8" s="17" customFormat="1" spans="1:17">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1706,7 +1698,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="9" s="17" customFormat="1" spans="1:17">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1737,7 +1729,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="10" s="17" customFormat="1" spans="1:17">
       <c r="A10" s="24"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1768,7 +1760,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="11" s="17" customFormat="1" spans="1:17">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1799,7 +1791,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="12" s="17" customFormat="1" spans="1:17">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -1830,7 +1822,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="13" s="17" customFormat="1" spans="1:17">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1861,7 +1853,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="14" s="17" customFormat="1" spans="1:17">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -1892,7 +1884,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="15" s="17" customFormat="1" spans="1:17">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -1923,7 +1915,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="16" s="17" customFormat="1" spans="1:17">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -1954,7 +1946,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="17" s="17" customFormat="1" spans="1:17">
       <c r="A17" s="24"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -1985,7 +1977,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="18" s="17" customFormat="1" spans="1:17">
       <c r="A18" s="24"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2016,7 +2008,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="19" s="17" customFormat="1" spans="1:17">
       <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -2047,7 +2039,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="20" s="17" customFormat="1" spans="1:17">
       <c r="A20" s="24"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -2078,7 +2070,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="21" s="17" customFormat="1" spans="1:17">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -2109,7 +2101,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="22" s="17" customFormat="1" spans="1:17">
       <c r="A22" s="24"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -2140,7 +2132,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="23" s="17" customFormat="1" spans="1:17">
       <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2171,7 +2163,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="24" s="17" customFormat="1" spans="1:17">
       <c r="A24" s="24"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -2202,7 +2194,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="25" s="17" customFormat="1" spans="1:17">
       <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -2233,7 +2225,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="26" s="17" customFormat="1" spans="1:17">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -2264,7 +2256,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="27" s="17" customFormat="1" spans="1:17">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -2295,7 +2287,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="28" s="17" customFormat="1" spans="1:17">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2326,7 +2318,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="29" s="17" customFormat="1" spans="1:17">
       <c r="A29" s="24"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -2357,7 +2349,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="30" s="17" customFormat="1" spans="1:17">
       <c r="A30" s="24"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -2388,7 +2380,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="31" s="17" customFormat="1" spans="1:17">
       <c r="A31" s="24"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -2419,7 +2411,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="32" s="17" customFormat="1" spans="1:17">
       <c r="A32" s="24"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2450,7 +2442,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="33" s="17" customFormat="1" spans="1:17">
       <c r="A33" s="24"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -2481,7 +2473,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="34" s="17" customFormat="1" spans="1:17">
       <c r="A34" s="24"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -2512,7 +2504,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="35" s="17" customFormat="1" spans="1:17">
       <c r="A35" s="24"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -2543,7 +2535,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="36" s="17" customFormat="1" spans="1:17">
       <c r="A36" s="24"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -2574,7 +2566,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" s="17" customFormat="1" ht="13.5" spans="1:17">
+    <row r="37" s="17" customFormat="1" spans="1:17">
       <c r="A37" s="24"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -2583,7 +2575,7 @@
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H37:H60" si="4">IFERROR(INT(AVERAGE(B37:G37)),"")</f>
         <v/>
       </c>
       <c r="I37" s="25" t="str">
@@ -2597,15 +2589,15 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
       <c r="P37" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P37:P60" si="5">IFERROR(INT(AVERAGE(J37:O37)),"")</f>
         <v/>
       </c>
       <c r="Q37" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" ref="Q37:Q60" si="6">IFERROR(P37-P$65,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" s="17" customFormat="1" spans="1:17">
       <c r="A38" s="24"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -2614,7 +2606,7 @@
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I38" s="25" t="str">
@@ -2628,15 +2620,15 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q38" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" s="17" customFormat="1" spans="1:17">
       <c r="A39" s="24"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -2645,7 +2637,7 @@
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I39" s="25" t="str">
@@ -2659,15 +2651,15 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q39" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" s="17" customFormat="1" spans="1:17">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -2676,7 +2668,7 @@
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I40" s="25" t="str">
@@ -2690,15 +2682,15 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q40" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" s="17" customFormat="1" spans="1:17">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -2707,7 +2699,7 @@
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I41" s="25" t="str">
@@ -2721,15 +2713,15 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q41" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" s="17" customFormat="1" spans="1:17">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -2738,7 +2730,7 @@
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I42" s="25" t="str">
@@ -2752,15 +2744,15 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q42" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" s="17" customFormat="1" spans="1:17">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -2769,7 +2761,7 @@
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I43" s="25" t="str">
@@ -2783,15 +2775,15 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q43" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" s="17" customFormat="1" spans="1:17">
       <c r="A44" s="24"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -2800,7 +2792,7 @@
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I44" s="25" t="str">
@@ -2814,15 +2806,15 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q44" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" s="17" customFormat="1" spans="1:17">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2831,7 +2823,7 @@
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I45" s="25" t="str">
@@ -2845,15 +2837,15 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
       <c r="P45" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q45" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" s="17" customFormat="1" spans="1:17">
       <c r="A46" s="24"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -2862,7 +2854,7 @@
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I46" s="25" t="str">
@@ -2876,15 +2868,15 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
       <c r="P46" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q46" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" s="17" customFormat="1" spans="1:17">
       <c r="A47" s="24"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -2893,7 +2885,7 @@
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I47" s="25" t="str">
@@ -2907,15 +2899,15 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
       <c r="P47" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q47" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" s="17" customFormat="1" spans="1:17">
       <c r="A48" s="24"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -2924,7 +2916,7 @@
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I48" s="25" t="str">
@@ -2938,15 +2930,15 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
       <c r="P48" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q48" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" s="17" customFormat="1" spans="1:17">
       <c r="A49" s="24"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -2955,7 +2947,7 @@
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I49" s="25" t="str">
@@ -2969,15 +2961,15 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q49" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" s="17" customFormat="1" spans="1:17">
       <c r="A50" s="24"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -2986,7 +2978,7 @@
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I50" s="25" t="str">
@@ -3000,15 +2992,15 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q50" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" s="17" customFormat="1" spans="1:17">
       <c r="A51" s="24"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -3017,7 +3009,7 @@
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I51" s="25" t="str">
@@ -3031,15 +3023,15 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
       <c r="P51" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q51" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" s="17" customFormat="1" spans="1:17">
       <c r="A52" s="24"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -3048,7 +3040,7 @@
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I52" s="25" t="str">
@@ -3062,15 +3054,15 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
       <c r="P52" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q52" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" s="17" customFormat="1" spans="1:17">
       <c r="A53" s="24"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -3079,7 +3071,7 @@
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I53" s="25" t="str">
@@ -3093,15 +3085,15 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
       <c r="P53" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q53" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" s="17" customFormat="1" spans="1:17">
       <c r="A54" s="24"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -3110,7 +3102,7 @@
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I54" s="25" t="str">
@@ -3124,15 +3116,15 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
       <c r="P54" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q54" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" s="17" customFormat="1" spans="1:17">
       <c r="A55" s="24"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3141,7 +3133,7 @@
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I55" s="25" t="str">
@@ -3155,15 +3147,15 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q55" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" s="17" customFormat="1" spans="1:17">
       <c r="A56" s="24"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -3172,7 +3164,7 @@
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I56" s="25" t="str">
@@ -3186,15 +3178,15 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q56" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" s="17" customFormat="1" spans="1:17">
       <c r="A57" s="24"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -3203,7 +3195,7 @@
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I57" s="25" t="str">
@@ -3217,15 +3209,15 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
       <c r="P57" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q57" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" s="17" customFormat="1" spans="1:17">
       <c r="A58" s="24"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -3234,7 +3226,7 @@
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
       <c r="H58" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I58" s="25" t="str">
@@ -3248,15 +3240,15 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
       <c r="P58" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q58" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" s="17" customFormat="1" spans="1:17">
       <c r="A59" s="24"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -3265,7 +3257,7 @@
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I59" s="25" t="str">
@@ -3279,15 +3271,15 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
       <c r="P59" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q59" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" s="17" customFormat="1" ht="13.5" spans="1:17">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" s="17" customFormat="1" spans="1:17">
       <c r="A60" s="24"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -3296,7 +3288,7 @@
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I60" s="25" t="str">
@@ -3310,11 +3302,11 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
       <c r="P60" s="25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q60" s="25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3323,60 +3315,60 @@
         <v>27</v>
       </c>
       <c r="B61" s="25" t="str">
-        <f ca="1" t="shared" ref="B61:H61" si="4">IFERROR(COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0),"")</f>
+        <f ca="1" t="shared" ref="B61:H61" si="7">IFERROR(COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0),"")</f>
         <v/>
       </c>
       <c r="C61" s="25" t="str">
-        <f ca="1" t="shared" si="4"/>
+        <f ca="1" t="shared" si="7"/>
         <v/>
       </c>
       <c r="D61" s="25" t="str">
-        <f ca="1" t="shared" si="4"/>
+        <f ca="1" t="shared" si="7"/>
         <v/>
       </c>
       <c r="E61" s="25" t="str">
-        <f ca="1" t="shared" si="4"/>
+        <f ca="1" t="shared" si="7"/>
         <v/>
       </c>
       <c r="F61" s="25" t="str">
-        <f ca="1" t="shared" si="4"/>
+        <f ca="1" t="shared" si="7"/>
         <v/>
       </c>
       <c r="G61" s="25" t="str">
-        <f ca="1" t="shared" si="4"/>
+        <f ca="1" t="shared" si="7"/>
         <v/>
       </c>
       <c r="H61" s="25" t="str">
-        <f ca="1" t="shared" si="4"/>
+        <f ca="1" t="shared" si="7"/>
         <v/>
       </c>
       <c r="I61" s="25"/>
       <c r="J61" s="25" t="str">
-        <f ca="1" t="shared" ref="J61:P61" si="5">IFERROR(COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0),"")</f>
+        <f ca="1" t="shared" ref="J61:P61" si="8">IFERROR(COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0),"")</f>
         <v/>
       </c>
       <c r="K61" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="L61" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="M61" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="N61" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="O61" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="P61" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
+        <f ca="1" t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q61" s="25"/>
@@ -3386,60 +3378,60 @@
         <v>28</v>
       </c>
       <c r="B62" s="25" t="str">
-        <f ca="1" t="shared" ref="B62:H62" si="6">IFERROR(COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0),"")</f>
+        <f ca="1" t="shared" ref="B62:H62" si="9">IFERROR(COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0),"")</f>
         <v/>
       </c>
       <c r="C62" s="25" t="str">
-        <f ca="1" t="shared" si="6"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="D62" s="25" t="str">
-        <f ca="1" t="shared" si="6"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="E62" s="25" t="str">
-        <f ca="1" t="shared" si="6"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="F62" s="25" t="str">
-        <f ca="1" t="shared" si="6"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="G62" s="25" t="str">
-        <f ca="1" t="shared" si="6"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="H62" s="25" t="str">
-        <f ca="1" t="shared" si="6"/>
+        <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
       <c r="I62" s="25"/>
       <c r="J62" s="25" t="str">
-        <f ca="1" t="shared" ref="J62:P62" si="7">IFERROR(COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0),"")</f>
+        <f ca="1" t="shared" ref="J62:P62" si="10">IFERROR(COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0),"")</f>
         <v/>
       </c>
       <c r="K62" s="25" t="str">
-        <f ca="1" t="shared" si="7"/>
+        <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
       <c r="L62" s="25" t="str">
-        <f ca="1" t="shared" si="7"/>
+        <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
       <c r="M62" s="25" t="str">
-        <f ca="1" t="shared" si="7"/>
+        <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
       <c r="N62" s="25" t="str">
-        <f ca="1" t="shared" si="7"/>
+        <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
       <c r="O62" s="25" t="str">
-        <f ca="1" t="shared" si="7"/>
+        <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
       <c r="P62" s="25" t="str">
-        <f ca="1" t="shared" si="7"/>
+        <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q62" s="25"/>
@@ -3449,53 +3441,53 @@
         <v>29</v>
       </c>
       <c r="B63" s="26" t="str">
-        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f ca="1" t="shared" ref="B63:G63" si="11">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>↑↓</v>
       </c>
       <c r="C63" s="26" t="str">
-        <f ca="1" t="shared" si="8"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="D63" s="26" t="str">
-        <f ca="1" t="shared" si="8"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="E63" s="26" t="str">
-        <f ca="1" t="shared" si="8"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="F63" s="26" t="str">
-        <f ca="1" t="shared" si="8"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="G63" s="26" t="str">
-        <f ca="1" t="shared" si="8"/>
+        <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
       <c r="H63" s="26"/>
       <c r="I63" s="26"/>
       <c r="J63" s="26" t="str">
-        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f ca="1" t="shared" ref="J63:O63" si="12">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>↑↓</v>
       </c>
       <c r="K63" s="26" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
       <c r="L63" s="26" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
       <c r="M63" s="26" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
       <c r="N63" s="26" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
       <c r="O63" s="26" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
       <c r="P63" s="26" t="s">
@@ -3508,60 +3500,60 @@
         <v>31</v>
       </c>
       <c r="B64" s="25" t="str">
-        <f t="shared" ref="B64:H64" si="10">IF(B5="","",MAX(B5:B60))</f>
+        <f t="shared" ref="B64:H64" si="13">IF(B5="","",MAX(B5:B60))</f>
         <v/>
       </c>
       <c r="C64" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="D64" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E64" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F64" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G64" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H64" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="25" t="str">
-        <f t="shared" ref="J64:P64" si="11">IF(J5="","",MAX(J5:J60))</f>
+        <f t="shared" ref="J64:P64" si="14">IF(J5="","",MAX(J5:J60))</f>
         <v/>
       </c>
       <c r="K64" s="25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L64" s="25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M64" s="25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N64" s="25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O64" s="25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P64" s="25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q64" s="24"/>
@@ -3571,60 +3563,60 @@
         <v>32</v>
       </c>
       <c r="B65" s="25" t="str">
-        <f t="shared" ref="B65:H65" si="12">IF(B5="","",MIN(B5:B60))</f>
+        <f t="shared" ref="B65:H65" si="15">IF(B5="","",MIN(B5:B60))</f>
         <v/>
       </c>
       <c r="C65" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="D65" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E65" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F65" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G65" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H65" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="25" t="str">
-        <f t="shared" ref="J65:P65" si="13">IF(J5="","",MIN(J5:J60))</f>
+        <f t="shared" ref="J65:P65" si="16">IF(J5="","",MIN(J5:J60))</f>
         <v/>
       </c>
       <c r="K65" s="25" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L65" s="25" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M65" s="25" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N65" s="25" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O65" s="25" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P65" s="25" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q65" s="24"/>
@@ -3634,60 +3626,60 @@
         <v>12</v>
       </c>
       <c r="B66" s="25" t="str">
-        <f t="shared" ref="B66:H66" si="14">IFERROR(INT(AVERAGE(B5:B60)),"")</f>
+        <f t="shared" ref="B66:H66" si="17">IFERROR(INT(AVERAGE(B5:B60)),"")</f>
         <v/>
       </c>
       <c r="C66" s="25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="D66" s="25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E66" s="25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F66" s="25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G66" s="25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H66" s="25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I66" s="25"/>
       <c r="J66" s="25" t="str">
-        <f t="shared" ref="J66:P66" si="15">IFERROR(INT(AVERAGE(J5:J60)),"")</f>
+        <f t="shared" ref="J66:P66" si="18">IFERROR(INT(AVERAGE(J5:J60)),"")</f>
         <v/>
       </c>
       <c r="K66" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L66" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M66" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N66" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O66" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P66" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q66" s="24"/>
@@ -3746,60 +3738,60 @@
         <v>34</v>
       </c>
       <c r="B68" s="24" t="str">
-        <f t="shared" ref="B68:H68" si="16">IFERROR(IF(ABS(B66-B67)&gt;7,1,0),"")</f>
+        <f t="shared" ref="B68:H68" si="19">IFERROR(IF(ABS(B66-B67)&gt;7,1,0),"")</f>
         <v/>
       </c>
       <c r="C68" s="24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="D68" s="24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E68" s="24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F68" s="24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="G68" s="24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H68" s="24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I68" s="24"/>
       <c r="J68" s="24" t="str">
-        <f t="shared" ref="J68:P68" si="17">IFERROR(IF(ABS(J66-J67)&gt;7,1,0),"")</f>
+        <f t="shared" ref="J68:P68" si="20">IFERROR(IF(ABS(J66-J67)&gt;7,1,0),"")</f>
         <v/>
       </c>
       <c r="K68" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L68" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M68" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N68" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O68" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P68" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q68" s="24"/>
@@ -4068,7 +4060,7 @@
     <cfRule type="cellIs" dxfId="0" priority="54" operator="greaterThan">
       <formula>$C$66+30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="lessThan">
       <formula>$C$66-30</formula>
     </cfRule>
   </conditionalFormatting>

--- a/excel/finished/焦化/CK67-炼焦-7#炉温记录报表（日）copy.xlsx
+++ b/excel/finished/焦化/CK67-炼焦-7#炉温记录报表（日）copy.xlsx
@@ -285,11 +285,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -333,17 +333,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -375,34 +369,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -413,16 +398,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,7 +423,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,17 +431,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -489,31 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,13 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,84 +561,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -639,13 +573,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,24 +651,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -735,6 +735,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -746,11 +785,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,21 +824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -817,31 +847,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,141 +865,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1059,6 +1074,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1069,6 +1087,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="50" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,7 +1434,7 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1451,7 +1472,7 @@
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
-      <c r="Q1" s="27"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A2" s="19"/>
@@ -1574,7 +1595,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" s="17" customFormat="1" spans="1:17">
+    <row r="5" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -1605,7 +1626,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" spans="1:17">
+    <row r="6" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -1636,7 +1657,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" spans="1:17">
+    <row r="7" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1667,7 +1688,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" spans="1:17">
+    <row r="8" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1698,7 +1719,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" spans="1:17">
+    <row r="9" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1729,7 +1750,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" spans="1:17">
+    <row r="10" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A10" s="24"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1760,7 +1781,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" spans="1:17">
+    <row r="11" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1791,7 +1812,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" spans="1:17">
+    <row r="12" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -1822,7 +1843,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" spans="1:17">
+    <row r="13" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1853,7 +1874,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" spans="1:17">
+    <row r="14" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -1884,7 +1905,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" spans="1:17">
+    <row r="15" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -1915,7 +1936,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" spans="1:17">
+    <row r="16" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -1946,7 +1967,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" spans="1:17">
+    <row r="17" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A17" s="24"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -1977,7 +1998,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" spans="1:17">
+    <row r="18" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A18" s="24"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2008,7 +2029,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" spans="1:17">
+    <row r="19" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -2039,7 +2060,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" spans="1:17">
+    <row r="20" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A20" s="24"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -2070,7 +2091,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" s="17" customFormat="1" spans="1:17">
+    <row r="21" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -2101,7 +2122,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" spans="1:17">
+    <row r="22" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A22" s="24"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -2132,7 +2153,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" s="17" customFormat="1" spans="1:17">
+    <row r="23" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2163,7 +2184,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" s="17" customFormat="1" spans="1:17">
+    <row r="24" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A24" s="24"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -2194,7 +2215,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" s="17" customFormat="1" spans="1:17">
+    <row r="25" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -2225,7 +2246,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" s="17" customFormat="1" spans="1:17">
+    <row r="26" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -2256,7 +2277,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" s="17" customFormat="1" spans="1:17">
+    <row r="27" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -2287,7 +2308,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" s="17" customFormat="1" spans="1:17">
+    <row r="28" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2318,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" s="17" customFormat="1" spans="1:17">
+    <row r="29" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A29" s="24"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -2349,7 +2370,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" s="17" customFormat="1" spans="1:17">
+    <row r="30" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A30" s="24"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -2380,7 +2401,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" spans="1:17">
+    <row r="31" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A31" s="24"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -2411,7 +2432,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" s="17" customFormat="1" spans="1:17">
+    <row r="32" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A32" s="24"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2442,7 +2463,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" s="17" customFormat="1" spans="1:17">
+    <row r="33" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A33" s="24"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -2473,7 +2494,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" s="17" customFormat="1" spans="1:17">
+    <row r="34" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A34" s="24"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -2504,7 +2525,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" s="17" customFormat="1" spans="1:17">
+    <row r="35" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A35" s="24"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -2535,7 +2556,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" s="17" customFormat="1" spans="1:17">
+    <row r="36" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A36" s="24"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -2566,7 +2587,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" s="17" customFormat="1" spans="1:17">
+    <row r="37" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A37" s="24"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -2597,7 +2618,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" s="17" customFormat="1" spans="1:17">
+    <row r="38" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A38" s="24"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -2628,7 +2649,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" s="17" customFormat="1" spans="1:17">
+    <row r="39" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A39" s="24"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -2659,7 +2680,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" s="17" customFormat="1" spans="1:17">
+    <row r="40" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -2690,7 +2711,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" s="17" customFormat="1" spans="1:17">
+    <row r="41" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -2721,7 +2742,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" s="17" customFormat="1" spans="1:17">
+    <row r="42" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -2752,7 +2773,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" s="17" customFormat="1" spans="1:17">
+    <row r="43" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -2783,7 +2804,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" s="17" customFormat="1" spans="1:17">
+    <row r="44" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A44" s="24"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -2814,7 +2835,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" s="17" customFormat="1" spans="1:17">
+    <row r="45" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2845,7 +2866,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" s="17" customFormat="1" spans="1:17">
+    <row r="46" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A46" s="24"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -2876,7 +2897,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" s="17" customFormat="1" spans="1:17">
+    <row r="47" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A47" s="24"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -2907,7 +2928,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" s="17" customFormat="1" spans="1:17">
+    <row r="48" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A48" s="24"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -2938,7 +2959,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" s="17" customFormat="1" spans="1:17">
+    <row r="49" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A49" s="24"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -2969,7 +2990,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" s="17" customFormat="1" spans="1:17">
+    <row r="50" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A50" s="24"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -3000,7 +3021,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" s="17" customFormat="1" spans="1:17">
+    <row r="51" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A51" s="24"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -3031,7 +3052,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" s="17" customFormat="1" spans="1:17">
+    <row r="52" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A52" s="24"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -3062,7 +3083,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" s="17" customFormat="1" spans="1:17">
+    <row r="53" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A53" s="24"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -3093,7 +3114,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" s="17" customFormat="1" spans="1:17">
+    <row r="54" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A54" s="24"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -3124,7 +3145,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" s="17" customFormat="1" spans="1:17">
+    <row r="55" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A55" s="24"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3155,7 +3176,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" s="17" customFormat="1" spans="1:17">
+    <row r="56" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A56" s="24"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -3186,7 +3207,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" s="17" customFormat="1" spans="1:17">
+    <row r="57" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A57" s="24"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -3217,7 +3238,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" s="17" customFormat="1" spans="1:17">
+    <row r="58" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A58" s="24"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -3248,7 +3269,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" s="17" customFormat="1" spans="1:17">
+    <row r="59" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A59" s="24"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -3279,7 +3300,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" s="17" customFormat="1" spans="1:17">
+    <row r="60" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A60" s="24"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -3377,120 +3398,120 @@
       <c r="A62" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="25" t="str">
-        <f ca="1" t="shared" ref="B62:H62" si="9">IFERROR(COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C62" s="25" t="str">
+      <c r="B62" s="26" t="str">
+        <f ca="1" t="shared" ref="B62:H62" si="9">IFERROR(COUNTIF(B6:B59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0),"")</f>
+        <v/>
+      </c>
+      <c r="C62" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D62" s="25" t="str">
+      <c r="D62" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E62" s="25" t="str">
+      <c r="E62" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F62" s="25" t="str">
+      <c r="F62" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G62" s="25" t="str">
+      <c r="G62" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H62" s="25" t="str">
+      <c r="H62" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25" t="str">
-        <f ca="1" t="shared" ref="J62:P62" si="10">IFERROR(COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0),"")</f>
-        <v/>
-      </c>
-      <c r="K62" s="25" t="str">
+      <c r="I62" s="26"/>
+      <c r="J62" s="26" t="str">
+        <f ca="1" t="shared" ref="J62:P62" si="10">IFERROR(COUNTIF(J6:J59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0),"")</f>
+        <v/>
+      </c>
+      <c r="K62" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L62" s="25" t="str">
+      <c r="L62" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M62" s="25" t="str">
+      <c r="M62" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N62" s="25" t="str">
+      <c r="N62" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O62" s="25" t="str">
+      <c r="O62" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P62" s="25" t="str">
+      <c r="P62" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q62" s="25"/>
+      <c r="Q62" s="26"/>
     </row>
     <row r="63" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A63" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="26" t="str">
+      <c r="B63" s="27" t="str">
         <f ca="1" t="shared" ref="B63:G63" si="11">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>↑↓</v>
       </c>
-      <c r="C63" s="26" t="str">
+      <c r="C63" s="27" t="str">
         <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
-      <c r="D63" s="26" t="str">
+      <c r="D63" s="27" t="str">
         <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
-      <c r="E63" s="26" t="str">
+      <c r="E63" s="27" t="str">
         <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
-      <c r="F63" s="26" t="str">
+      <c r="F63" s="27" t="str">
         <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
-      <c r="G63" s="26" t="str">
+      <c r="G63" s="27" t="str">
         <f ca="1" t="shared" si="11"/>
         <v>↑↓</v>
       </c>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26" t="str">
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27" t="str">
         <f ca="1" t="shared" ref="J63:O63" si="12">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>↑↓</v>
       </c>
-      <c r="K63" s="26" t="str">
+      <c r="K63" s="27" t="str">
         <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
-      <c r="L63" s="26" t="str">
+      <c r="L63" s="27" t="str">
         <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
-      <c r="M63" s="26" t="str">
+      <c r="M63" s="27" t="str">
         <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
-      <c r="N63" s="26" t="str">
+      <c r="N63" s="27" t="str">
         <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
-      <c r="O63" s="26" t="str">
+      <c r="O63" s="27" t="str">
         <f ca="1" t="shared" si="12"/>
         <v>↑↓</v>
       </c>
-      <c r="P63" s="26" t="s">
+      <c r="P63" s="27" t="s">
         <v>30</v>
       </c>
       <c r="Q63" s="24"/>
@@ -3625,64 +3646,64 @@
       <c r="A66" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="25" t="str">
-        <f t="shared" ref="B66:H66" si="17">IFERROR(INT(AVERAGE(B5:B60)),"")</f>
-        <v/>
-      </c>
-      <c r="C66" s="25" t="str">
+      <c r="B66" s="26" t="str">
+        <f t="shared" ref="B66:H66" si="17">IFERROR(INT(AVERAGEIF(B5:B60,"&lt;&gt;0")),"")</f>
+        <v/>
+      </c>
+      <c r="C66" s="26" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="D66" s="25" t="str">
+      <c r="D66" s="26" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="E66" s="25" t="str">
+      <c r="E66" s="26" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F66" s="25" t="str">
+      <c r="F66" s="26" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G66" s="25" t="str">
+      <c r="G66" s="26" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="H66" s="25" t="str">
+      <c r="H66" s="26" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25" t="str">
-        <f t="shared" ref="J66:P66" si="18">IFERROR(INT(AVERAGE(J5:J60)),"")</f>
-        <v/>
-      </c>
-      <c r="K66" s="25" t="str">
+      <c r="I66" s="26"/>
+      <c r="J66" s="26" t="str">
+        <f t="shared" ref="J66:P66" si="18">IFERROR(INT(AVERAGEIF(J5:J60,"&lt;&gt;0")),"")</f>
+        <v/>
+      </c>
+      <c r="K66" s="26" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L66" s="25" t="str">
+      <c r="L66" s="26" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="M66" s="25" t="str">
+      <c r="M66" s="26" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="N66" s="25" t="str">
+      <c r="N66" s="26" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="O66" s="25" t="str">
+      <c r="O66" s="26" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="P66" s="25" t="str">
+      <c r="P66" s="26" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="Q66" s="24"/>
+      <c r="Q66" s="31"/>
     </row>
     <row r="67" s="17" customFormat="1" ht="13.5" spans="1:17">
       <c r="A67" s="24" t="s">
@@ -3797,7 +3818,7 @@
       <c r="Q68" s="24"/>
     </row>
     <row r="69" s="17" customFormat="1" ht="13.5" spans="9:9">
-      <c r="I69" s="29"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" s="17" customFormat="1" ht="13.5" spans="3:12">
       <c r="C70" s="24"/>
@@ -3827,19 +3848,19 @@
       <c r="C71" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="28" t="str">
+      <c r="D71" s="29" t="str">
         <f ca="1">IFERROR((56*2-B$61-B$62-J$61-J$62)/(56*2),"")</f>
         <v/>
       </c>
-      <c r="E71" s="28" t="str">
+      <c r="E71" s="29" t="str">
         <f ca="1">IFERROR((56*2-C$61-C$62-K$61-K$62)/(56*2),"")</f>
         <v/>
       </c>
-      <c r="F71" s="28" t="str">
+      <c r="F71" s="29" t="str">
         <f ca="1">IFERROR(AVERAGE(D71:E71),"")</f>
         <v/>
       </c>
-      <c r="G71" s="28"/>
+      <c r="G71" s="29"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24" t="s">
         <v>38</v>
@@ -3861,15 +3882,15 @@
       <c r="C72" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D72" s="28" t="str">
+      <c r="D72" s="29" t="str">
         <f ca="1">IFERROR((56*2-D$61-D$62-L$61-L$62)/(56*2),"")</f>
         <v/>
       </c>
-      <c r="E72" s="28" t="str">
+      <c r="E72" s="29" t="str">
         <f ca="1">IFERROR((56*2-E$61-E$62-M$61-M$62)/(56*2),"")</f>
         <v/>
       </c>
-      <c r="F72" s="28" t="str">
+      <c r="F72" s="29" t="str">
         <f ca="1">IFERROR(AVERAGE(D72:E72),"")</f>
         <v/>
       </c>
@@ -3895,15 +3916,15 @@
       <c r="C73" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D73" s="28" t="str">
+      <c r="D73" s="29" t="str">
         <f ca="1">IFERROR((56*2-F$61-F$62-N$61-N$62)/(56*2),"")</f>
         <v/>
       </c>
-      <c r="E73" s="28" t="str">
+      <c r="E73" s="29" t="str">
         <f ca="1">IFERROR((56*2-G$61-G$62-O$61-O$62)/(56*2),"")</f>
         <v/>
       </c>
-      <c r="F73" s="28" t="str">
+      <c r="F73" s="29" t="str">
         <f ca="1">IFERROR(AVERAGE(D73:E73),"")</f>
         <v/>
       </c>
@@ -3940,9 +3961,9 @@
       <c r="I74" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J74" s="28"/>
+      <c r="J74" s="29"/>
       <c r="K74" s="25"/>
-      <c r="L74" s="28">
+      <c r="L74" s="29">
         <f>IFERROR((2*6-SUM(B68:P68))/(2*6),"")</f>
         <v>1</v>
       </c>

--- a/excel/finished/焦化/CK67-炼焦-7#炉温记录报表（日）copy.xlsx
+++ b/excel/finished/焦化/CK67-炼焦-7#炉温记录报表（日）copy.xlsx
@@ -10,14 +10,14 @@
     <sheet name="_model" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="7炉焦侧炉温管控" sheetId="2" r:id="rId2"/>
     <sheet name="7炉机侧炉温管控" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>日期</t>
   </si>
@@ -168,128 +168,17 @@
   <si>
     <t>7#机侧</t>
   </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>DateTime1</t>
-  </si>
-  <si>
-    <t>2018年12月30日</t>
-  </si>
-  <si>
-    <t>DateTime2</t>
-  </si>
-  <si>
-    <t>12月30日</t>
-  </si>
-  <si>
-    <t>DateTime3</t>
-  </si>
-  <si>
-    <t>2018/12/30</t>
-  </si>
-  <si>
-    <t>DateTime4</t>
-  </si>
-  <si>
-    <t>12/30</t>
-  </si>
-  <si>
-    <t>DateTime5</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>DateTime6</t>
-  </si>
-  <si>
-    <t>2018年12月</t>
-  </si>
-  <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
-    <t>CK67-炼焦-7#炉温记录报表（日）</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>日报表</t>
-  </si>
-  <si>
-    <t>TemplatePath</t>
-  </si>
-  <si>
-    <t>D:\template\焦化\CK67-炼焦-7#炉温记录报表（日）.xlsx</t>
-  </si>
-  <si>
-    <t>AutoBuild</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>BuildUnit</t>
-  </si>
-  <si>
-    <t>AutoBuildDelay</t>
-  </si>
-  <si>
-    <t>AutoBuildDelayUnit</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>cn_zh</t>
-  </si>
-  <si>
-    <t>BlowingInDate</t>
-  </si>
-  <si>
-    <t>2018-12-30</t>
-  </si>
-  <si>
-    <t>Build_Type</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>Build_StartTime</t>
-  </si>
-  <si>
-    <t>2018-12-30 16:21:35</t>
-  </si>
-  <si>
-    <t>Build_EndTime</t>
-  </si>
-  <si>
-    <t>2018-12-30 16:21:36</t>
-  </si>
-  <si>
-    <t>ExcelFile</t>
-  </si>
-  <si>
-    <t>D:\excel\cn_zh\焦化\日报表\CK67-炼焦-7#炉温记录报表（日）_2018-12-30_17.xlsx</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -333,23 +222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,8 +244,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,69 +277,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,12 +300,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -489,7 +378,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,61 +432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +474,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,91 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,26 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -796,15 +665,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,9 +686,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,16 +709,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,136 +754,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4349,7 +4238,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="13" t="str">
         <f>IF(_metadata!B6="","",_metadata!B6)</f>
-        <v>12月</v>
+        <v/>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="14" t="s">
@@ -6971,7 +6860,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="10" t="str">
         <f>IF(_metadata!B6="","",_metadata!B6)</f>
-        <v>12月</v>
+        <v/>
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="5" t="s">
@@ -9528,171 +9417,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1">
-        <v>43464.6816778357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
